--- a/MSC_REQ.xlsx
+++ b/MSC_REQ.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="6315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -728,14 +723,6 @@
     <t>shut down queue handling of the driver for transition from asynchronous mode to synchronous mode</t>
   </si>
   <si>
-    <t>The module shall provide support for the driver shut down queue handling for transition from asynchronous mode to synchronous mode.
-Risk:Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether the driver is shut down queue handling for transition from asynchronous mode to synchronous mode.
-</t>
-  </si>
-  <si>
     <t>Legacy:
 TC_04, Itf_ShDwn</t>
   </si>
@@ -754,10 +741,6 @@
   <si>
     <t>The module shall support for shut down queue handling of the driver for transition from asynchronous mode to synchronous mode while interrupts are disabled.
 Risk:Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether the driver is shut down queue handling for transition from asynchronous mode to synchronous mode while interrupts are disabled. 
-</t>
   </si>
   <si>
     <t>Legacy:
@@ -931,11 +914,23 @@
   <si>
     <t>TESTRESULT : rba_msc_review_sws_rqone01563132 / 1.36.0; 0</t>
   </si>
+  <si>
+    <t>The module shall provide support for the driver shut down queue handling for transition from asynchronous mode (interrupt enabled) to synchronous mode.
+Risk:Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether the driver is shut down queue handling for transition from asynchronous mode to synchronous mode while interrupts are already disabled. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether the driver is shut down queue handling for transition from asynchronous mode to synchronous mode while interrupt enabled.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1063,7 +1058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1098,7 +1093,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1275,7 +1270,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1285,11 +1280,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1297,10 +1292,10 @@
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="179.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="135.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" customWidth="1"/>
     <col min="10" max="10" width="120.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -1372,7 +1367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1456,7 +1451,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-443</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1498,7 +1493,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-442</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1540,7 +1535,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2733</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1666,7 +1661,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2738</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1708,7 +1703,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2739</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1750,7 +1745,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2768</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2548,7 +2543,7 @@
         <v>BSW_SWS_MCAL_Msc_RBA-2742</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>201</v>
       </c>
@@ -2562,25 +2557,25 @@
         <v>203</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" t="s">
         <v>205</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>207</v>
       </c>
       <c r="R30" t="s">
         <v>31</v>
@@ -2592,37 +2587,37 @@
     </row>
     <row r="31" spans="1:20" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s">
         <v>104</v>
       </c>
       <c r="C31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
         <v>211</v>
-      </c>
-      <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>214</v>
       </c>
       <c r="R31" t="s">
         <v>31</v>
@@ -2634,43 +2629,43 @@
     </row>
     <row r="32" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
         <v>104</v>
       </c>
       <c r="C32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
         <v>216</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="J32" t="s">
         <v>217</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="s">
         <v>218</v>
       </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="R32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" t="s">
         <v>219</v>
-      </c>
-      <c r="J32" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>221</v>
-      </c>
-      <c r="R32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" t="s">
-        <v>222</v>
       </c>
       <c r="T32" s="3" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2860-00058452","BSW_SWS_MCAL_Msc_RBA-2860")</f>
@@ -2679,29 +2674,29 @@
     </row>
     <row r="33" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D33" t="s">
+      <c r="J33" t="s">
         <v>225</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J33" t="s">
-        <v>228</v>
-      </c>
       <c r="K33" t="s">
         <v>28</v>
       </c>
@@ -2709,13 +2704,13 @@
         <v>29</v>
       </c>
       <c r="Q33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R33" t="s">
         <v>31</v>
       </c>
       <c r="S33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="T33" s="3" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2861-00058452","BSW_SWS_MCAL_Msc_RBA-2861")</f>
@@ -2724,29 +2719,29 @@
     </row>
     <row r="34" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D34" t="s">
+      <c r="J34" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J34" t="s">
-        <v>234</v>
-      </c>
       <c r="K34" t="s">
         <v>28</v>
       </c>
@@ -2754,13 +2749,13 @@
         <v>29</v>
       </c>
       <c r="Q34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R34" t="s">
         <v>31</v>
       </c>
       <c r="S34" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="T34" s="3" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2862-00058452","BSW_SWS_MCAL_Msc_RBA-2862")</f>
@@ -2769,29 +2764,29 @@
     </row>
     <row r="35" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
       </c>
       <c r="C35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D35" t="s">
+      <c r="J35" t="s">
         <v>237</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J35" t="s">
-        <v>240</v>
-      </c>
       <c r="K35" t="s">
         <v>28</v>
       </c>
@@ -2799,58 +2794,58 @@
         <v>29</v>
       </c>
       <c r="Q35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="R35" t="s">
         <v>31</v>
       </c>
       <c r="S35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="T35" s="3" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2864-00058452","BSW_SWS_MCAL_Msc_RBA-2864")</f>
         <v>BSW_SWS_MCAL_Msc_RBA-2864</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="153" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
       </c>
       <c r="C36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="J36" t="s">
         <v>243</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="s">
         <v>244</v>
       </c>
-      <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="R36" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" t="s">
         <v>245</v>
-      </c>
-      <c r="J36" t="s">
-        <v>246</v>
-      </c>
-      <c r="K36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P36" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>247</v>
-      </c>
-      <c r="R36" t="s">
-        <v>31</v>
-      </c>
-      <c r="S36" t="s">
-        <v>248</v>
       </c>
       <c r="T36" s="3" t="str">
         <f>HYPERLINK("doors://fe-dorapcm3.de.bosch.com:36679/?version=2&amp;prodID=0&amp;view=00000013&amp;urn=urn:telelogic::1-52394082008461e6-O-2884-00058452","BSW_SWS_MCAL_Msc_RBA-2884")</f>
